--- a/data/input/sheet.xlsx
+++ b/data/input/sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alessandro\digitizing-payroll\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Desktop\digitizing-payroll\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90705CB0-4585-48F6-A4F9-27EE7F6D59E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D2D8F-FED5-4E8A-8A0F-526527C61214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3324" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Rossi</t>
   </si>
   <si>
-    <t>mario.rossi@mail.it</t>
-  </si>
-  <si>
     <t>XX123AIFJ127AOJ1Y</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>paola.s@company.it</t>
+  </si>
+  <si>
+    <t>lorenzi.alessandro19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -480,28 +480,27 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{24BAD230-6B45-4D93-B0CD-025E057D00EF}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{AF508E0F-96EC-4995-99B2-51E390B06E50}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{8D8D7C69-7C74-47E2-982D-621D612D0F6F}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{8D8D7C69-7C74-47E2-982D-621D612D0F6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
